--- a/prisma/data/theo-doi-bhxh.xlsx
+++ b/prisma/data/theo-doi-bhxh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8450257-FD48-4E64-9836-FA85938EB80B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE9EF74-1AF3-4AF1-BC1F-092CE720FA8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ThongTinBHXH" sheetId="10" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="158">
   <si>
     <t>BV</t>
   </si>
@@ -424,12 +424,6 @@
     <t>phuCapId</t>
   </si>
   <si>
-    <t>bacNgachLuong</t>
-  </si>
-  <si>
-    <t>bacNgachLuongId</t>
-  </si>
-  <si>
     <t>ngachLuong</t>
   </si>
   <si>
@@ -440,6 +434,108 @@
   </si>
   <si>
     <t>nhanVienId</t>
+  </si>
+  <si>
+    <t>bacLuongId</t>
+  </si>
+  <si>
+    <t>bacLuong</t>
+  </si>
+  <si>
+    <t>2024-07-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2025-01-04T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2020-05-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-10-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-01-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2021-09-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-01-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-08-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-06-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-07-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2025-01-05T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-07-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2019-01-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-10-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-08-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-12-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-11-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-03-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-12-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-09-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-08-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-10-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2025-01-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2021-12-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2023-12-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-04-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2022-11-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2024-09-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2011-05-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2014-12-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2017-05-01T00:00:00+07:00</t>
+  </si>
+  <si>
+    <t>2017-04-01T00:00:00+07:00</t>
   </si>
 </sst>
 </file>
@@ -4576,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FA9E7A-115B-4840-9EF7-DE1D8DB6395E}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" activeCellId="5" sqref="A1:A1048576 C1:C1048576 E1:E1048576 G1:G1048576 H1:H1048576 J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4595,22 +4691,22 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>119</v>
@@ -7909,7 +8005,7 @@
         <v>44743</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" ref="J98:J129" si="3">TEXT(I98,"YYYY-MM-DD") &amp; "T00:00:00+07:00"</f>
+        <f t="shared" ref="J98:J102" si="3">TEXT(I98,"YYYY-MM-DD") &amp; "T00:00:00+07:00"</f>
         <v>2022-07-01T00:00:00+07:00</v>
       </c>
       <c r="M98">
@@ -8056,12 +8152,1539 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>37</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>36</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>36</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>48</v>
+      </c>
+      <c r="F56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>50</v>
+      </c>
+      <c r="F58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>49</v>
+      </c>
+      <c r="F59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>49</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>48</v>
+      </c>
+      <c r="F66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>21</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>21</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>29</v>
+      </c>
+      <c r="F70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>62</v>
+      </c>
+      <c r="F71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>37</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>36</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>36</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>37</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>43</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>51</v>
+      </c>
+      <c r="F83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>51</v>
+      </c>
+      <c r="F84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>51</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>51</v>
+      </c>
+      <c r="F86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>49</v>
+      </c>
+      <c r="F87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>51</v>
+      </c>
+      <c r="F88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>49</v>
+      </c>
+      <c r="F89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>48</v>
+      </c>
+      <c r="F92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>95</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>48</v>
+      </c>
+      <c r="F93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>96</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>45</v>
+      </c>
+      <c r="F95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>47</v>
+      </c>
+      <c r="F96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>11</v>
+      </c>
+      <c r="C97">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>65</v>
+      </c>
+      <c r="F98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>15</v>
+      </c>
+      <c r="C99">
+        <v>64</v>
+      </c>
+      <c r="F99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>69</v>
+      </c>
+      <c r="B100">
+        <v>15</v>
+      </c>
+      <c r="C100">
+        <v>65</v>
+      </c>
+      <c r="F100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>65</v>
+      </c>
+      <c r="F101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>65</v>
+      </c>
+      <c r="F102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>